--- a/박물관db수정본.xlsx
+++ b/박물관db수정본.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,6 +671,10 @@
   </si>
   <si>
     <t>박물관관련자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,15 +1150,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1186,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
@@ -1204,7 +1208,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1218,7 +1222,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1231,7 +1235,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1246,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1257,7 +1261,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1276,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>133</v>
       </c>
@@ -1283,7 +1287,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1292,13 +1296,13 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1348,8 +1352,11 @@
         <v>154</v>
       </c>
       <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1385,8 +1392,9 @@
         <v>162</v>
       </c>
       <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -1418,8 +1426,9 @@
         <v>161</v>
       </c>
       <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1441,6 +1450,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="8"/>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P17" s="3"/>
